--- a/데이터베이스 명세서.xlsx
+++ b/데이터베이스 명세서.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="시트2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="197">
   <si>
     <t>T3USER</t>
   </si>
@@ -274,7 +275,7 @@
     <t>KIND</t>
   </si>
   <si>
-    <t>글머리,1-구매, 2-판매, 3-의뢰,4-홍보</t>
+    <t>글머리 1-구매,  2-판매,  3-의뢰, 4-홍보</t>
   </si>
   <si>
     <t>RNO</t>
@@ -596,6 +597,12 @@
   </si>
   <si>
     <t>채팅방번호</t>
+  </si>
+  <si>
+    <t>CREATE TABLE</t>
+  </si>
+  <si>
+    <t>(</t>
   </si>
 </sst>
 </file>
@@ -728,6 +735,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3023,4 +3034,267 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>